--- a/Some result data/Gene Set Enrichment results/Gene Set Enrichment - WikiPathways/GSEresultsWP_lightyellow_PPCM_.xlsx
+++ b/Some result data/Gene Set Enrichment results/Gene Set Enrichment - WikiPathways/GSEresultsWP_lightyellow_PPCM_.xlsx
@@ -180,16 +180,16 @@
         <v>0.890625</v>
       </c>
       <c r="E2" t="n">
-        <v>1.512325406774641</v>
+        <v>1.497902135034229</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03176802590750464</v>
+        <v>0.04353784861795712</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3812163108900557</v>
+        <v>0.31238095238095237</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3678402999816327</v>
+        <v>0.30142021720969087</v>
       </c>
       <c r="I2" t="n">
         <v>9.0</v>
@@ -215,16 +215,16 @@
         <v>-0.828125</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.3527990213349814</v>
+        <v>-1.37487132613748</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08745247148288973</v>
+        <v>0.06476190476190476</v>
       </c>
       <c r="G3" t="n">
-        <v>0.40304182509505704</v>
+        <v>0.31238095238095237</v>
       </c>
       <c r="H3" t="n">
-        <v>0.38890000667066904</v>
+        <v>0.30142021720969087</v>
       </c>
       <c r="I3" t="n">
         <v>14.0</v>
@@ -250,16 +250,16 @@
         <v>-0.8163426788976494</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.3335517911990546</v>
+        <v>-1.3553100576828794</v>
       </c>
       <c r="F4" t="n">
-        <v>0.10076045627376426</v>
+        <v>0.07809523809523809</v>
       </c>
       <c r="G4" t="n">
-        <v>0.40304182509505704</v>
+        <v>0.31238095238095237</v>
       </c>
       <c r="H4" t="n">
-        <v>0.38890000667066904</v>
+        <v>0.30142021720969087</v>
       </c>
       <c r="I4" t="n">
         <v>2.0</v>
